--- a/medicine/Psychotrope/Erl-Bräu/Erl-Bräu.xlsx
+++ b/medicine/Psychotrope/Erl-Bräu/Erl-Bräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erl-Br%C3%A4u</t>
+          <t>Erl-Bräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Erl-Bräu est une brasserie à Geiselhöring.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erl-Br%C3%A4u</t>
+          <t>Erl-Bräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1871, Ulrich Erl acquiert la brasserie Mayer à Geiselhöring. La même année, il est élu membre du Landtag de Bavière pour le Bayerische Patriotenpartei. Jusqu'à sa mort le 6 mars 1883, il agrandit continuellement la brasserie et acquiert des droits de livraison de bière et des auberges.
 Après la mort de son père, Ludwig Erl, né le 18 juin 1858, cinquième de 15 enfants, reprend en 1891 à sa mère Helene Erl la brasserie et les auberges associées. En 1901, la brasserie Erl déménage à son emplacement actuel sur Straubinger Straße. Ludwig Erl dirige la brasserie jusqu'à sa mort le 25 décembre 1918.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erl-Br%C3%A4u</t>
+          <t>Erl-Bräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
